--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_09_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_09_end.xlsx
@@ -1700,11 +1700,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  It’s over, Tomimi.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  ...N-No it’s not!
+    <t xml:space="preserve">[name="Gavial"]  It's over, Tomimi.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  ...N-No it's not!
 </t>
   </si>
   <si>
@@ -1720,15 +1720,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  If you don’t want your friends getting hurt...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Don’t make me angry, Tomimi!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  ...I won’t stop until you promise you’ll stay, Gavial!
+    <t xml:space="preserve">[name="Tomimi"]  If you don't want your friends getting hurt...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Don't make me angry, Tomimi!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  ...I won't stop until you promise you'll stay, Gavial!
 </t>
   </si>
   <si>
@@ -1736,15 +1736,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Doctor, I’m scared... Waaahhh...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Did you finish your task?;......;Don’t be scared! I’m going to save you!",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  Doctor, please. The girl’s pouring her heart out here, it wouldn’t kill you to work with her.
+    <t xml:space="preserve">[name="Lancet-2"]  Doctor, I'm scared... Waaahhh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Did you finish your task?;......;Don't be scared! I'm going to save you!",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  Doctor, please. The girl's pouring her heart out here, it wouldn't kill you to work with her.
 </t>
   </si>
   <si>
@@ -1752,11 +1752,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dylan"]  Hey now, Doctor, don’t look at me like that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  Relax, I’m a Rhodes Island Operator too. Of course I can handle something like this.
+    <t xml:space="preserve">[name="Dylan"]  Hey now, Doctor, don't look at me like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  Relax, I'm a Rhodes Island Operator too. Of course I can handle something like this.
 </t>
   </si>
   <si>
@@ -1816,7 +1816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Wahhh... That was just for you, Doctor. I don’t normally let people put things inside me so easily.
+    <t xml:space="preserve">[name="Lancet-2"]  Wahhh... That was just for you, Doctor. I don't normally let people put things inside me so easily.
 </t>
   </si>
   <si>
@@ -1824,11 +1824,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  It’s... a rocket launcher?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dylan"]  Yep. Found it with Tomimi’s tribe.
+    <t xml:space="preserve">[name="Gavial"]  It's... a rocket launcher?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dylan"]  Yep. Found it with Tomimi's tribe.
 </t>
   </si>
   <si>
@@ -1844,7 +1844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Ohhhhh, I’m sorry, Gavial.
+    <t xml:space="preserve">[name="Tomimi"]  Ohhhhh, I'm sorry, Gavial.
 </t>
   </si>
   <si>
@@ -1856,15 +1856,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  You’re going over my knee.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Gavial, please don’t spank me, I know what I did was bad...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Them’s the breaks.
+    <t xml:space="preserve">[name="Gavial"]  You're going over my knee.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Gavial, please don't spank me, I know what I did was bad...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Them's the breaks.
 </t>
   </si>
   <si>
@@ -1880,7 +1880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  I won’t do it agaaain! Waaahhh...!
+    <t xml:space="preserve">[name="Tomimi"]  I won't do it agaaain! Waaahhh...!
 </t>
   </si>
   <si>
@@ -1888,23 +1888,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Anyway, I think we’re pretty much okay now, Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Exhausting.;......;I’m surprised you didn’t give her the whatever whirlwind thing. ",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Haha, well, it’s definitely been a lot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey, Doctor, you’re not falling asleep on your feet there, are you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I wouldn’t want to hurt little Tomimi, after all. Phew, I’m a little tired myself.
+    <t xml:space="preserve">[name="Gavial"]  Anyway, I think we're pretty much okay now, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Exhausting.;......;I'm surprised you didn't give her the whatever whirlwind thing. ",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Haha, well, it's definitely been a lot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hey, Doctor, you're not falling asleep on your feet there, are you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I wouldn't want to hurt little Tomimi, after all. Phew, I'm a little tired myself.
 </t>
   </si>
   <si>
@@ -1920,7 +1920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  What? Are you telling me the engine’s inside this big guy? !
+    <t xml:space="preserve">[name="Lancet-2"]  What? Are you telling me the engine's inside this big guy? !
 </t>
   </si>
   <si>
@@ -1948,7 +1948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Huh? What’s up?
+    <t xml:space="preserve">[name="Gavial"]  Huh? What's up?
 </t>
   </si>
   <si>
@@ -1964,7 +1964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, you mean Lancet-2? She’s a friend of ours.
+    <t xml:space="preserve">[name="Gavial"]  Oh, you mean Lancet-2? She's a friend of ours.
 </t>
   </si>
   <si>
@@ -1996,7 +1996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Yes. I do have a certain level of intelligence. As long as your questions aren’t too hard, I should be able to answer them.
+    <t xml:space="preserve">[name="Lancet-2"]  Yes. I do have a certain level of intelligence. As long as your questions aren't too hard, I should be able to answer them.
 </t>
   </si>
   <si>
@@ -2024,7 +2024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Isn’t it obvious? She’s in awe of that machine.
+    <t xml:space="preserve">[name="High Priest"]  Isn't it obvious? She's in awe of that machine.
 </t>
   </si>
   <si>
@@ -2036,7 +2036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  And forget her, I’m just as excited!
+    <t xml:space="preserve">[name="High Priest"]  And forget her, I'm just as excited!
 </t>
   </si>
   <si>
@@ -2044,27 +2044,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  I know the most gorgeous spot in the rainforest. I’ll take you there for a lovely afternoon!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Oh, y-you’re asking me out? !
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  I don’t know what to do here. I’m flattered... Doctor, should I accept?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Yes.;......;I’ll never let you take my Lancet-2!",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  Don’t butt in, High Priest, or you can’t blame me for what happens to our friendship after all these years.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Honestly, I’m with the Doctor here.
+    <t xml:space="preserve">[name="High Priest"]  I know the most gorgeous spot in the rainforest. I'll take you there for a lovely afternoon!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  Oh, y-you're asking me out? !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  I don't know what to do here. I'm flattered... Doctor, should I accept?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Yes.;......;I'll never let you take my Lancet-2!",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  Don't butt in, High Priest, or you can't blame me for what happens to our friendship after all these years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Honestly, I'm with the Doctor here.
 </t>
   </si>
   <si>
@@ -2072,19 +2072,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Oh, Doctor, to hear you suddenly come out and say that... My heart isn’t ready...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  So Gavial, your people you’re with now can create this type of machine?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Huh? Err, I’m pretty sure Closure can, yeah.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  Okay. I’ve made a decision. 
+    <t xml:space="preserve">[name="Lancet-2"]  Oh, Doctor, to hear you suddenly come out and say that... My heart isn't ready...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  So Gavial, your people you're with now can create this type of machine?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Huh? Err, I'm pretty sure Closure can, yeah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  Okay. I've made a decision. 
 </t>
   </si>
   <si>
@@ -2100,11 +2100,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  I’ve thought about leaving to go study in the outside world before, but I never seriously considered it because of the tribe. I think this is a great opportunity. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Th-Then I’m going too!
+    <t xml:space="preserve">[name="Eunectes"]  I've thought about leaving to go study in the outside world before, but I never seriously considered it because of the tribe. I think this is a great opportunity. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Th-Then I'm going too!
 </t>
   </si>
   <si>
@@ -2112,7 +2112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  If this is how it’s going to be, then it’s time for plan B... I’m going with Gavial!
+    <t xml:space="preserve">[name="Tomimi"]  If this is how it's going to be, then it's time for plan B... I'm going with Gavial!
 </t>
   </si>
   <si>
@@ -2124,7 +2124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="They can come, but I don’t know what might happen.;......;You made your bed, now lie in it.",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="They can come, but I don't know what might happen.;......;You made your bed, now lie in it.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2132,7 +2132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  C’mon, Doctor, be nice.
+    <t xml:space="preserve">[name="Gavial"]  C'mon, Doctor, be nice.
 </t>
   </si>
   <si>
@@ -2164,11 +2164,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  She says she’s going with you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Oh. Cool. She packs a punch. I bet she’ll make a fine operator.
+    <t xml:space="preserve">[name="Gavial"]  She says she's going with you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Oh. Cool. She packs a punch. I bet she'll make a fine operator.
 </t>
   </si>
   <si>
@@ -2180,35 +2180,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hm? Wait a second. So Zumama’s going, Tomimi’s going, and Kemar’s going, what about the tribes?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="You weren’t worried about that when you left the first time.",values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Ahahaha, I was seeing red back then! Couldn’t think at all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  You’re right, though... I can’t just abandon my tribe.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Oh, I think you’ve got nothing to worry about in that department.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  It’s no Gavial, but the Big Ugly is still pretty strong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  That’s for sure. I want to make one too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria C"]  With the Temple destroyed, let’s build machines instead. Whoever makes the most awesome one gets to be Great Chief?
+    <t xml:space="preserve">[name="Gavial"]  Hm? Wait a second. So Zumama's going, Tomimi's going, and Kemar's going, what about the tribes?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You weren't worried about that when you left the first time.",values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Ahahaha, I was seeing red back then! Couldn't think at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  You're right, though... I can't just abandon my tribe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Oh, I think you've got nothing to worry about in that department.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  It's no Gavial, but the Big Ugly is still pretty strong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  That's for sure. I want to make one too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria C"]  With the Temple destroyed, let's build machines instead. Whoever makes the most awesome one gets to be Great Chief?
 </t>
   </si>
   <si>
@@ -2216,7 +2216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria C"]  Oh, good point. I don’t want to give up fighting. What should we do?
+    <t xml:space="preserve">[name="Archosauria C"]  Oh, good point. I don't want to give up fighting. What should we do?
 </t>
   </si>
   <si>
@@ -2232,7 +2232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  From what I’ve seen, the common folk are usually quick to adapt, even as the leaders hem and haw about the future.
+    <t xml:space="preserve">[name="High Priest"]  From what I've seen, the common folk are usually quick to adapt, even as the leaders hem and haw about the future.
 </t>
   </si>
   <si>
@@ -2244,27 +2244,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Oh, I never thought it was important. Is it? My point is that people are resilient, they’ll go on living even if one of their traditions disappears.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  I’ve always thought of traditions as rituals that bring people together.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  But when that tradition carries on for a few decades, they start to think it’s inviolable, it’s unbreakable, it has to go on forever.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  But that’s nonsense!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  So you tell me you want to blow up the Temple and I’m all in, both hands, both feet, and my tail too!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Oh, no, if my hands and feet are in, my tail has to stay out... right? What if I’m laying down?  Let’s see!
+    <t xml:space="preserve">[name="High Priest"]  Oh, I never thought it was important. Is it? My point is that people are resilient, they'll go on living even if one of their traditions disappears.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  I've always thought of traditions as rituals that bring people together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  But when that tradition carries on for a few decades, they start to think it's inviolable, it's unbreakable, it has to go on forever.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  But that's nonsense!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  So you tell me you want to blow up the Temple and I'm all in, both hands, both feet, and my tail too!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Oh, no, if my hands and feet are in, my tail has to stay out... right? What if I'm laying down?  Let's see!
 </t>
   </si>
   <si>
@@ -2320,11 +2320,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="There were extenuating circumstances. ;......;Wasn’t my fault.",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Seeing as the aircraft is still in reparable condition, I won’t be too hard on you. But the maintenance costs are coming out of your pay, and Blaze’s.
+    <t xml:space="preserve">[Decision(options="There were extenuating circumstances. ;......;Wasn't my fault.",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Seeing as the aircraft is still in reparable condition, I won't be too hard on you. But the maintenance costs are coming out of your pay, and Blaze's.
 </t>
   </si>
   <si>
@@ -2340,7 +2340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  As for the three individuals you brought back, since you seem to think they have what it takes to be operators, I’ll leave them to the Doctor.
+    <t xml:space="preserve">[name="Kal'tsit"]  As for the three individuals you brought back, since you seem to think they have what it takes to be operators, I'll leave them to the Doctor.
 </t>
   </si>
   <si>
@@ -2348,11 +2348,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Huh? Sure. But even I didn’t think it’d go down like that. It was fun.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Honestly, I had a contingency plan in case the Doctor didn’t bring you back.
+    <t xml:space="preserve">[name="Gavial"]  Huh? Sure. But even I didn't think it'd go down like that. It was fun.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Honestly, I had a contingency plan in case the Doctor didn't bring you back.
 </t>
   </si>
   <si>
@@ -2360,7 +2360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Because I figured there was a possibility you’d want to stay there.
+    <t xml:space="preserve">[name="Kal'tsit"]  Because I figured there was a possibility you'd want to stay there.
 </t>
   </si>
   <si>
@@ -2368,15 +2368,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You’ve never really adapted to life outside your tribe. Every day, you come into conflict with the world, in your own ferocious way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’ll put it this way: if someday you asked for a leave of absence, or if you just left, I wouldn’t be surprised. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey, Doctor, maybe I’m not getting this right. Is Kal'tsit saying she cares about me?
+    <t xml:space="preserve">[name="Kal'tsit"]  You've never really adapted to life outside your tribe. Every day, you come into conflict with the world, in your own ferocious way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I'll put it this way: if someday you asked for a leave of absence, or if you just left, I wouldn't be surprised. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hey, Doctor, maybe I'm not getting this right. Is Kal'tsit saying she cares about me?
 </t>
   </si>
   <si>
@@ -2384,7 +2384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If there’s nothing else, Dr. {@nickname}, you can go.
+    <t xml:space="preserve">[name="Kal'tsit"]  If there's nothing else, Dr. {@nickname}, you can go.
 </t>
   </si>
   <si>
@@ -2392,15 +2392,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Then I’m gonna go ahead and say you care about me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  That’s our Kal'tsit, even confusing the Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Kal'tsit, I’m not going anywhere.
+    <t xml:space="preserve">[name="Gavial"]  Then I'm gonna go ahead and say you care about me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  That's our Kal'tsit, even confusing the Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Kal'tsit, I'm not going anywhere.
 </t>
   </si>
   <si>
@@ -2408,7 +2408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Now that’s not to say I really thought I could become a doctor, but I’m very happy I made that decision.
+    <t xml:space="preserve">[name="Gavial"]  Now that's not to say I really thought I could become a doctor, but I'm very happy I made that decision.
 </t>
   </si>
   <si>
@@ -2416,19 +2416,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  If I never left, I wouldn’t know what the world is really like.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I wouldn’t know how many diseases are preventable or curable, I wouldn’t know how people look down on Oripathy. I wouldn’t know that saving lives makes me as happy as taking them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  The world is definitely complicated, and I don’t always know what motivates people, or why they fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  But I’m a doctor now. And my dream is to treat Oripathy.
+    <t xml:space="preserve">[name="Gavial"]  If I never left, I wouldn't know what the world is really like.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I wouldn't know how many diseases are preventable or curable, I wouldn't know how people look down on Oripathy. I wouldn't know that saving lives makes me as happy as taking them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  The world is definitely complicated, and I don't always know what motivates people, or why they fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  But I'm a doctor now. And my dream is to treat Oripathy.
 </t>
   </si>
   <si>
@@ -2436,11 +2436,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m afraid not.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Well how about that. And by the way, you all work a lot harder than I do. What’s with you here worrying about me?
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm afraid not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Well how about that. And by the way, you all work a lot harder than I do. What's with you here worrying about me?
 </t>
   </si>
   <si>
@@ -2448,7 +2448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  You didn’t pick up my slack while I was away now, did you?
+    <t xml:space="preserve">[name="Gavial"]  You didn't pick up my slack while I was away now, did you?
 </t>
   </si>
   <si>
@@ -2456,15 +2456,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Good. I’m gonna give Zumama an Oripathy checkup. You have a nice chat now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Oh, I’ll see what Kemar’s up to. Err, I guess I’m calling her Flint now. I’m worried she’ll get into a fight, with the language barrier and all...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Doctor, Tomimi should be in her general studies class now. You check on her when you’re done.
+    <t xml:space="preserve">[name="Gavial"]  Good. I'm gonna give Zumama an Oripathy checkup. You have a nice chat now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Oh, I'll see what Kemar's up to. Err, I guess I'm calling her Flint now. I'm worried she'll get into a fight, with the language barrier and all...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Doctor, Tomimi should be in her general studies class now. You check on her when you're done.
 </t>
   </si>
   <si>
@@ -2488,7 +2488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You had another mission ready to go last week. You’re technically very late.
+    <t xml:space="preserve">[name="Kal'tsit"]  You had another mission ready to go last week. You're technically very late.
 </t>
   </si>
   <si>
